--- a/ip-address-table.xlsx
+++ b/ip-address-table.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srozanov\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1F60C7-C194-49BB-8B68-44838B34D9D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="3900" yWindow="3900" windowWidth="23730" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="сводная таблица" sheetId="2" r:id="rId1"/>
@@ -19,12 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -395,7 +390,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -912,6 +907,45 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -920,45 +954,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1304,11 +1299,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:R79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1334,11 +1329,11 @@
       <c r="B2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="59"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="56"/>
       <c r="K2" s="38" t="s">
         <v>85</v>
       </c>
@@ -1461,11 +1456,11 @@
       <c r="B6" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="56"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="53"/>
       <c r="K6" s="25" t="s">
         <v>96</v>
       </c>
@@ -1651,8 +1646,8 @@
       <c r="F13" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
       <c r="I13" s="16">
         <v>65200</v>
       </c>
@@ -1687,8 +1682,8 @@
       <c r="F14" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
       <c r="I14" s="16">
         <v>65200</v>
       </c>
@@ -1716,12 +1711,12 @@
         <v>49</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="51"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="53"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="45"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="47"/>
       <c r="K15" s="25" t="s">
         <v>23</v>
       </c>
@@ -1746,7 +1741,7 @@
         <v>50</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>47</v>
@@ -1846,12 +1841,12 @@
       <c r="C19" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D19" s="47"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="49"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="50"/>
       <c r="K19" s="25" t="s">
         <v>63</v>
       </c>
@@ -1875,12 +1870,12 @@
       <c r="C20" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="47"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="49"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="50"/>
       <c r="K20" s="25" t="s">
         <v>48</v>
       </c>
@@ -1904,12 +1899,12 @@
       <c r="C21" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D21" s="47"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="49"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="50"/>
       <c r="K21" s="25" t="s">
         <v>42</v>
       </c>
@@ -1933,12 +1928,12 @@
       <c r="C22" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="47"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="49"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="50"/>
       <c r="K22" s="25" t="s">
         <v>43</v>
       </c>
@@ -1962,12 +1957,12 @@
       <c r="C23" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D23" s="47"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="49"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="50"/>
       <c r="K23" s="25" t="s">
         <v>44</v>
       </c>
@@ -1989,16 +1984,16 @@
         <v>19</v>
       </c>
       <c r="C24" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D24" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="47"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="49"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="50"/>
       <c r="K24" s="25" t="s">
         <v>45</v>
       </c>
@@ -2022,12 +2017,12 @@
       <c r="C25" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D25" s="47"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="49"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="50"/>
       <c r="K25" s="25" t="s">
         <v>39</v>
       </c>
@@ -2054,11 +2049,11 @@
       <c r="D26" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E26" s="47"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="49"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="50"/>
       <c r="K26" s="25" t="s">
         <v>40</v>
       </c>
@@ -2092,8 +2087,8 @@
       <c r="F27" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="G27" s="47"/>
-      <c r="H27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="49"/>
       <c r="I27" s="16">
         <v>65100</v>
       </c>
@@ -2121,12 +2116,12 @@
       <c r="C28" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="D28" s="47"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="49"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="50"/>
       <c r="K28" s="27">
         <v>65100</v>
       </c>
@@ -2180,12 +2175,12 @@
       <c r="C30" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="47"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="49"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="50"/>
       <c r="R30" s="20"/>
     </row>
     <row r="31" spans="2:18" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2195,12 +2190,12 @@
       <c r="C31" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="44"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="46"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="59"/>
       <c r="R31" s="20"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
@@ -2563,27 +2558,27 @@
       <c r="B79" s="18"/>
     </row>
   </sheetData>
-  <sortState ref="B32:B77">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B32:B77">
     <sortCondition ref="B32"/>
   </sortState>
   <mergeCells count="17">
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="D28:I28"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="D23:I23"/>
+    <mergeCell ref="E24:I24"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="F15:I15"/>
     <mergeCell ref="D19:I19"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="G13:H13"/>
-    <mergeCell ref="D20:I20"/>
-    <mergeCell ref="D21:I21"/>
-    <mergeCell ref="D22:I22"/>
-    <mergeCell ref="D23:I23"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="D28:I28"/>
-    <mergeCell ref="D30:I30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B33:B79">
